--- a/data/trans_bre/P16A07-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P16A07-Estudios-trans_bre.xlsx
@@ -539,7 +539,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido antidepresivos en las dos últimas semanas</t>
+          <t>Población que ha consumido medicamentos antidepresivos en las dos últimas semanas</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_bre/P16A07-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P16A07-Estudios-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>7.074913920136872</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6.963881894282034</v>
+        <v>6.963881894282031</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>1.475578269681643</v>
@@ -649,7 +649,7 @@
         <v>1.676040303166638</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>1.114221969310867</v>
+        <v>1.114221969310866</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>3.927387828464061</v>
+        <v>3.817219647602222</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>6.742342809382175</v>
+        <v>6.597838942931173</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4.56487268645437</v>
+        <v>4.512871687588978</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>4.102195481420654</v>
+        <v>4.470746309486993</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.7804434574404617</v>
+        <v>0.7349258901628818</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>1.017868629431061</v>
+        <v>1.036279085227034</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7801660589928836</v>
+        <v>0.808059705252874</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.4682748106554585</v>
+        <v>0.5408251129826545</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>7.982653562883805</v>
+        <v>7.940281118017885</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>11.61091601427132</v>
+        <v>11.83546957730782</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>9.93184497788307</v>
+        <v>9.465896512083802</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>9.490571076739718</v>
+        <v>9.843616301699571</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>2.525687683473357</v>
+        <v>2.482727031987282</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>2.850083990736159</v>
+        <v>2.998040338595709</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>3.192732954658093</v>
+        <v>2.92224643195185</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1.979818403025926</v>
+        <v>2.124764663815876</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>4.25874910775004</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>3.692441936258545</v>
+        <v>3.692441936258544</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>3.302856844516779</v>
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>2.453796808924265</v>
+        <v>2.340798863930557</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>1.784558026841016</v>
+        <v>1.792044929136193</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2.892875808889958</v>
+        <v>2.999659030368152</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2.380644881921923</v>
+        <v>2.521344874247665</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>1.664096481636851</v>
+        <v>1.664156599046301</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5582647577653772</v>
+        <v>0.6114071739278872</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>1.20300354745534</v>
+        <v>1.252140826453128</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.6338006236185599</v>
+        <v>0.6488640999656032</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>4.845246439039602</v>
+        <v>4.727762529701142</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>4.467837535225518</v>
+        <v>4.342943527120806</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>5.558342702058287</v>
+        <v>5.515218651152335</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>4.836456725983607</v>
+        <v>4.921869292082704</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>6.419555293049045</v>
+        <v>6.276386481112105</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>2.361083316727886</v>
+        <v>2.213103402412495</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>3.737905721328441</v>
+        <v>3.742079529479098</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.875916496120789</v>
+        <v>1.901749816479406</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>2.102511066025012</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>1.74882931807074</v>
+        <v>1.748829318070741</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7468679074263099</v>
@@ -849,7 +849,7 @@
         <v>3.854743325090364</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.8521431942708459</v>
+        <v>0.8521431942708466</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.5062240265729153</v>
+        <v>-0.3184918110353384</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.055753095425484</v>
+        <v>-2.160786243018859</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.8309727683070393</v>
+        <v>0.7058584119723097</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.04716278531346581</v>
+        <v>-0.01078370270500938</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.2198869940935725</v>
+        <v>-0.1620254597358446</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.6496319287494696</v>
+        <v>-0.6896820892408142</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.21258242170791</v>
+        <v>0.224475480524767</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.03096907851065737</v>
+        <v>-0.07508326749605779</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.719306175171923</v>
+        <v>3.915349849528692</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.233660654368529</v>
+        <v>2.31322957545248</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.88499745012242</v>
+        <v>4.267938116170639</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.307879339930596</v>
+        <v>3.331490898487248</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>2.670744983479407</v>
+        <v>2.805111152066161</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>2.969330036582349</v>
+        <v>2.62175486648805</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>17.80921009910885</v>
+        <v>21.78175729199582</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>2.506552381349319</v>
+        <v>2.511717742999448</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>4.860721167043186</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>4.206329173619283</v>
+        <v>4.206329173619284</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>2.016941459341935</v>
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>3.395792087647219</v>
+        <v>3.39518189521986</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>4.108883502397138</v>
+        <v>4.144385006461239</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3.844316509923989</v>
+        <v>3.835788257319868</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3.287536182034265</v>
+        <v>3.233105083294711</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>1.297666808556689</v>
+        <v>1.321036077538382</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>1.139330641849928</v>
+        <v>1.122131485595678</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>1.481496571000381</v>
+        <v>1.440710927271058</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.8232477577671952</v>
+        <v>0.7942137258282344</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>5.316635208909421</v>
+        <v>5.371118339755648</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>6.371767937670311</v>
+        <v>6.449770958456809</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>5.844825147811221</v>
+        <v>5.957763538854758</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>5.178193702470865</v>
+        <v>5.193755061730785</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>2.949560017332101</v>
+        <v>3.096555725901951</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>2.351259023346804</v>
+        <v>2.369701379251612</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>3.160364126259279</v>
+        <v>3.188081545992642</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.790854081535072</v>
+        <v>1.774393694678581</v>
       </c>
     </row>
     <row r="16">
